--- a/src/test.xlsx
+++ b/src/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\licoq\Desktop\RAS\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Derg\Desktop\RAS\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDA2ACC-8D19-4451-8770-AE64034662AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E162A0-55CB-46F1-8727-85BBBC292DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,39 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="7">
+  <si>
+    <t>电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验室里的硬件资产。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放于机房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,583 +380,583 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B1">
         <v>2</v>
       </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
-      </c>
-      <c r="E1">
-        <v>5</v>
-      </c>
-      <c r="F1">
-        <v>6</v>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
       </c>
       <c r="G1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I1">
-        <v>9</v>
-      </c>
-      <c r="J1">
-        <v>10</v>
-      </c>
-      <c r="K1">
-        <v>11</v>
-      </c>
-      <c r="L1">
-        <v>12</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>9</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2">
-        <v>11</v>
-      </c>
-      <c r="L2">
-        <v>12</v>
-      </c>
-      <c r="M2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>1</v>
+        <v>1003</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>9</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <v>11</v>
-      </c>
-      <c r="L3">
-        <v>12</v>
-      </c>
-      <c r="M3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>1</v>
+        <v>1004</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>9</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4">
-        <v>11</v>
-      </c>
-      <c r="L4">
-        <v>12</v>
-      </c>
-      <c r="M4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>1</v>
+        <v>1005</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>9</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>11</v>
-      </c>
-      <c r="L5">
-        <v>12</v>
-      </c>
-      <c r="M5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>1</v>
+        <v>1006</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>9</v>
-      </c>
-      <c r="J6">
-        <v>10</v>
-      </c>
-      <c r="K6">
-        <v>11</v>
-      </c>
-      <c r="L6">
-        <v>12</v>
-      </c>
-      <c r="M6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>1</v>
+        <v>1007</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>9</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7">
-        <v>11</v>
-      </c>
-      <c r="L7">
-        <v>12</v>
-      </c>
-      <c r="M7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>1</v>
+        <v>1008</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>9</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8">
-        <v>11</v>
-      </c>
-      <c r="L8">
-        <v>12</v>
-      </c>
-      <c r="M8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>1</v>
+        <v>1009</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>9</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
-      </c>
-      <c r="K9">
-        <v>11</v>
-      </c>
-      <c r="L9">
-        <v>12</v>
-      </c>
-      <c r="M9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>1</v>
+        <v>1010</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>9</v>
-      </c>
-      <c r="J10">
-        <v>10</v>
-      </c>
-      <c r="K10">
-        <v>11</v>
-      </c>
-      <c r="L10">
-        <v>12</v>
-      </c>
-      <c r="M10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>1</v>
+        <v>1011</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>9</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
-      <c r="K11">
-        <v>11</v>
-      </c>
-      <c r="L11">
-        <v>12</v>
-      </c>
-      <c r="M11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>1</v>
+        <v>1012</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>9</v>
-      </c>
-      <c r="J12">
-        <v>10</v>
-      </c>
-      <c r="K12">
-        <v>11</v>
-      </c>
-      <c r="L12">
-        <v>12</v>
-      </c>
-      <c r="M12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>1</v>
+        <v>1013</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>9</v>
-      </c>
-      <c r="J13">
-        <v>10</v>
-      </c>
-      <c r="K13">
-        <v>11</v>
-      </c>
-      <c r="L13">
-        <v>12</v>
-      </c>
-      <c r="M13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>1</v>
+        <v>1014</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>9</v>
-      </c>
-      <c r="J14">
-        <v>10</v>
-      </c>
-      <c r="K14">
-        <v>11</v>
-      </c>
-      <c r="L14">
-        <v>12</v>
-      </c>
-      <c r="M14">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
